--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2477,28 +2477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1530.076271605704</v>
+        <v>1615.36022455543</v>
       </c>
       <c r="AB2" t="n">
-        <v>2093.517857011961</v>
+        <v>2210.207123900239</v>
       </c>
       <c r="AC2" t="n">
-        <v>1893.715451009505</v>
+        <v>1999.268058040381</v>
       </c>
       <c r="AD2" t="n">
-        <v>1530076.271605704</v>
+        <v>1615360.22455543</v>
       </c>
       <c r="AE2" t="n">
-        <v>2093517.857011961</v>
+        <v>2210207.123900239</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.068480888557905e-06</v>
+        <v>1.97696938754617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.2236328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1893715.451009505</v>
+        <v>1999268.058040381</v>
       </c>
     </row>
     <row r="3">
@@ -2583,28 +2583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>728.8998523022676</v>
+        <v>777.6823442655315</v>
       </c>
       <c r="AB3" t="n">
-        <v>997.3129347119345</v>
+        <v>1064.059292347727</v>
       </c>
       <c r="AC3" t="n">
-        <v>902.1307879605218</v>
+        <v>962.5069669026561</v>
       </c>
       <c r="AD3" t="n">
-        <v>728899.8523022676</v>
+        <v>777682.3442655315</v>
       </c>
       <c r="AE3" t="n">
-        <v>997312.9347119345</v>
+        <v>1064059.292347727</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.683016121735826e-06</v>
+        <v>3.114020463116677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.0283203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>902130.7879605219</v>
+        <v>962506.9669026561</v>
       </c>
     </row>
     <row r="4">
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.8670063483783</v>
+        <v>618.6494088030911</v>
       </c>
       <c r="AB4" t="n">
-        <v>779.7171788438266</v>
+        <v>846.463414010071</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.3020656349046</v>
+        <v>765.6781337958122</v>
       </c>
       <c r="AD4" t="n">
-        <v>569867.0063483783</v>
+        <v>618649.408803091</v>
       </c>
       <c r="AE4" t="n">
-        <v>779717.1788438265</v>
+        <v>846463.414010071</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.921379605525439e-06</v>
+        <v>3.555055315126933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.908528645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>705302.0656349045</v>
+        <v>765678.1337958121</v>
       </c>
     </row>
     <row r="5">
@@ -2795,28 +2795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>504.3727927149</v>
+        <v>552.9846029690206</v>
       </c>
       <c r="AB5" t="n">
-        <v>690.1051063497197</v>
+        <v>756.6179297411172</v>
       </c>
       <c r="AC5" t="n">
-        <v>624.2424435683016</v>
+        <v>684.4073764465583</v>
       </c>
       <c r="AD5" t="n">
-        <v>504372.7927149</v>
+        <v>552984.6029690206</v>
       </c>
       <c r="AE5" t="n">
-        <v>690105.1063497197</v>
+        <v>756617.9297411172</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.052465516704685e-06</v>
+        <v>3.797598570991563e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.403971354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>624242.4435683016</v>
+        <v>684407.3764465583</v>
       </c>
     </row>
     <row r="6">
@@ -2901,28 +2901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>462.4563041864542</v>
+        <v>499.0431955360398</v>
       </c>
       <c r="AB6" t="n">
-        <v>632.7531175201382</v>
+        <v>682.8129163643699</v>
       </c>
       <c r="AC6" t="n">
-        <v>572.3640480585934</v>
+        <v>617.6462099605008</v>
       </c>
       <c r="AD6" t="n">
-        <v>462456.3041864542</v>
+        <v>499043.1955360398</v>
       </c>
       <c r="AE6" t="n">
-        <v>632753.1175201382</v>
+        <v>682812.9163643699</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.128652200125102e-06</v>
+        <v>3.938563882092373e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.138671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>572364.0480585934</v>
+        <v>617646.2099605007</v>
       </c>
     </row>
     <row r="7">
@@ -3007,28 +3007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>458.4596303384042</v>
+        <v>495.0465216879897</v>
       </c>
       <c r="AB7" t="n">
-        <v>627.2846920404299</v>
+        <v>677.3444908846618</v>
       </c>
       <c r="AC7" t="n">
-        <v>567.4175214316851</v>
+        <v>612.6996833335925</v>
       </c>
       <c r="AD7" t="n">
-        <v>458459.6303384042</v>
+        <v>495046.5216879897</v>
       </c>
       <c r="AE7" t="n">
-        <v>627284.6920404299</v>
+        <v>677344.4908846618</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.138735731754275e-06</v>
+        <v>3.957221055620423e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.106119791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>567417.5214316852</v>
+        <v>612699.6833335925</v>
       </c>
     </row>
   </sheetData>
@@ -3304,28 +3304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1051.490799345489</v>
+        <v>1133.666102565366</v>
       </c>
       <c r="AB2" t="n">
-        <v>1438.696100164629</v>
+        <v>1551.131975348581</v>
       </c>
       <c r="AC2" t="n">
-        <v>1301.388963587575</v>
+        <v>1403.094116648712</v>
       </c>
       <c r="AD2" t="n">
-        <v>1051490.799345489</v>
+        <v>1133666.102565366</v>
       </c>
       <c r="AE2" t="n">
-        <v>1438696.100164629</v>
+        <v>1551131.975348581</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.313181291308711e-06</v>
+        <v>2.503126207652921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.97102864583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1301388.963587575</v>
+        <v>1403094.116648712</v>
       </c>
     </row>
     <row r="3">
@@ -3410,28 +3410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>573.3116649863555</v>
+        <v>620.2812621712038</v>
       </c>
       <c r="AB3" t="n">
-        <v>784.4303127599206</v>
+        <v>848.6961877806126</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.5653846649715</v>
+        <v>767.697814771411</v>
       </c>
       <c r="AD3" t="n">
-        <v>573311.6649863555</v>
+        <v>620281.2621712039</v>
       </c>
       <c r="AE3" t="n">
-        <v>784430.3127599206</v>
+        <v>848696.1877806126</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.89047494960175e-06</v>
+        <v>3.603537015474451e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.3154296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>709565.3846649715</v>
+        <v>767697.814771411</v>
       </c>
     </row>
     <row r="4">
@@ -3516,28 +3516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>461.1301936415321</v>
+        <v>508.0144499718089</v>
       </c>
       <c r="AB4" t="n">
-        <v>630.9386745687074</v>
+        <v>695.0877824672018</v>
       </c>
       <c r="AC4" t="n">
-        <v>570.7227729958606</v>
+        <v>628.7495800703612</v>
       </c>
       <c r="AD4" t="n">
-        <v>461130.1936415321</v>
+        <v>508014.4499718089</v>
       </c>
       <c r="AE4" t="n">
-        <v>630938.6745687074</v>
+        <v>695087.7824672018</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.109048740586718e-06</v>
+        <v>4.020172394109238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.454427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>570722.7729958607</v>
+        <v>628749.5800703611</v>
       </c>
     </row>
     <row r="5">
@@ -3622,28 +3622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>423.8676125438276</v>
+        <v>459.1588384505304</v>
       </c>
       <c r="AB5" t="n">
-        <v>579.9543672017713</v>
+        <v>628.2413794263258</v>
       </c>
       <c r="AC5" t="n">
-        <v>524.6043363671001</v>
+        <v>568.2829039161904</v>
       </c>
       <c r="AD5" t="n">
-        <v>423867.6125438276</v>
+        <v>459158.8384505304</v>
       </c>
       <c r="AE5" t="n">
-        <v>579954.3672017714</v>
+        <v>628241.3794263258</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.189118414791992e-06</v>
+        <v>4.17279755048937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.180989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>524604.3363671001</v>
+        <v>568282.9039161904</v>
       </c>
     </row>
     <row r="6">
@@ -3728,28 +3728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>425.7189449405429</v>
+        <v>461.0101708472456</v>
       </c>
       <c r="AB6" t="n">
-        <v>582.4874418619781</v>
+        <v>630.7744540865326</v>
       </c>
       <c r="AC6" t="n">
-        <v>526.8956579369295</v>
+        <v>570.5742254860197</v>
       </c>
       <c r="AD6" t="n">
-        <v>425718.9449405429</v>
+        <v>461010.1708472456</v>
       </c>
       <c r="AE6" t="n">
-        <v>582487.4418619781</v>
+        <v>630774.4540865326</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.189021828936498e-06</v>
+        <v>4.172613442942469e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.180989583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>526895.6579369295</v>
+        <v>570574.2254860197</v>
       </c>
     </row>
   </sheetData>
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.1717946977915</v>
+        <v>438.9403133165345</v>
       </c>
       <c r="AB2" t="n">
-        <v>543.4279714884619</v>
+        <v>600.5775013596165</v>
       </c>
       <c r="AC2" t="n">
-        <v>491.5639685955506</v>
+        <v>543.259227545671</v>
       </c>
       <c r="AD2" t="n">
-        <v>397171.7946977915</v>
+        <v>438940.3133165345</v>
       </c>
       <c r="AE2" t="n">
-        <v>543427.9714884619</v>
+        <v>600577.5013596164</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.136654131371256e-06</v>
+        <v>4.550514131165078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.209635416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>491563.9685955506</v>
+        <v>543259.227545671</v>
       </c>
     </row>
     <row r="3">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.4131737434204</v>
+        <v>393.2669437081839</v>
       </c>
       <c r="AB3" t="n">
-        <v>480.8190075708094</v>
+        <v>538.0851820946133</v>
       </c>
       <c r="AC3" t="n">
-        <v>434.9303163219662</v>
+        <v>486.7310875227989</v>
       </c>
       <c r="AD3" t="n">
-        <v>351413.1737434204</v>
+        <v>393266.9437081839</v>
       </c>
       <c r="AE3" t="n">
-        <v>480819.0075708095</v>
+        <v>538085.1820946133</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.255207450135866e-06</v>
+        <v>4.803001674382308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.7783203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>434930.3163219662</v>
+        <v>486731.0875227989</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>581.9187677622629</v>
+        <v>636.6071557926723</v>
       </c>
       <c r="AB2" t="n">
-        <v>796.2069304964922</v>
+        <v>871.0339956810999</v>
       </c>
       <c r="AC2" t="n">
-        <v>720.2180585333516</v>
+        <v>787.903733637186</v>
       </c>
       <c r="AD2" t="n">
-        <v>581918.7677622628</v>
+        <v>636607.1557926723</v>
       </c>
       <c r="AE2" t="n">
-        <v>796206.9304964922</v>
+        <v>871033.9956810999</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.795790838194381e-06</v>
+        <v>3.646076263286143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.345703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>720218.0585333516</v>
+        <v>787903.733637186</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.2760141668786</v>
+        <v>418.9926061510878</v>
       </c>
       <c r="AB3" t="n">
-        <v>513.4691985924048</v>
+        <v>573.2841683851215</v>
       </c>
       <c r="AC3" t="n">
-        <v>464.4644189372913</v>
+        <v>518.5707319638285</v>
       </c>
       <c r="AD3" t="n">
-        <v>375276.0141668785</v>
+        <v>418992.6061510878</v>
       </c>
       <c r="AE3" t="n">
-        <v>513469.1985924048</v>
+        <v>573284.1683851215</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.251414637584688e-06</v>
+        <v>4.571150099621991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.454427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>464464.4189372913</v>
+        <v>518570.7319638286</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.116013941336</v>
+        <v>418.8326059255452</v>
       </c>
       <c r="AB4" t="n">
-        <v>513.2502792251056</v>
+        <v>573.0652490178223</v>
       </c>
       <c r="AC4" t="n">
-        <v>464.266392927152</v>
+        <v>518.3727059536892</v>
       </c>
       <c r="AD4" t="n">
-        <v>375116.013941336</v>
+        <v>418832.6059255452</v>
       </c>
       <c r="AE4" t="n">
-        <v>513250.2792251056</v>
+        <v>573065.2490178223</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.257807186931191e-06</v>
+        <v>4.584129184902105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.433268229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>464266.392927152</v>
+        <v>518372.7059536892</v>
       </c>
     </row>
   </sheetData>
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.3999620407175</v>
+        <v>385.5006638826709</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.5914660349939</v>
+        <v>527.4590154132617</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.4879998029017</v>
+        <v>477.1190672755969</v>
       </c>
       <c r="AD2" t="n">
-        <v>345399.9620407175</v>
+        <v>385500.6638826709</v>
       </c>
       <c r="AE2" t="n">
-        <v>472591.4660349939</v>
+        <v>527459.0154132617</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.21260291641618e-06</v>
+        <v>4.927034520315844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.234049479166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>427487.9998029017</v>
+        <v>477119.0672755969</v>
       </c>
     </row>
   </sheetData>
@@ -5234,28 +5234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1161.961398454856</v>
+        <v>1233.139529074387</v>
       </c>
       <c r="AB2" t="n">
-        <v>1589.846847484936</v>
+        <v>1687.235905956079</v>
       </c>
       <c r="AC2" t="n">
-        <v>1438.114095725038</v>
+        <v>1526.208479142097</v>
       </c>
       <c r="AD2" t="n">
-        <v>1161961.398454856</v>
+        <v>1233139.529074387</v>
       </c>
       <c r="AE2" t="n">
-        <v>1589846.847484936</v>
+        <v>1687235.905956079</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.246347094770223e-06</v>
+        <v>2.35654780528515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1438114.095725038</v>
+        <v>1526208.479142097</v>
       </c>
     </row>
     <row r="3">
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>608.6079930061442</v>
+        <v>656.031662970491</v>
       </c>
       <c r="AB3" t="n">
-        <v>832.7243059206887</v>
+        <v>897.6114633505678</v>
       </c>
       <c r="AC3" t="n">
-        <v>753.250266899521</v>
+        <v>811.94468509399</v>
       </c>
       <c r="AD3" t="n">
-        <v>608607.9930061442</v>
+        <v>656031.662970491</v>
       </c>
       <c r="AE3" t="n">
-        <v>832724.3059206887</v>
+        <v>897611.4633505677</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.834344192011101e-06</v>
+        <v>3.468311354003887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.492838541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>753250.266899521</v>
+        <v>811944.6850939899</v>
       </c>
     </row>
     <row r="4">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.1480461640626</v>
+        <v>535.65696747443</v>
       </c>
       <c r="AB4" t="n">
-        <v>667.9056923335637</v>
+        <v>732.9094944160922</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.1617104687743</v>
+        <v>662.9616409139555</v>
       </c>
       <c r="AD4" t="n">
-        <v>488148.0461640626</v>
+        <v>535656.96747443</v>
       </c>
       <c r="AE4" t="n">
-        <v>667905.6923335637</v>
+        <v>732909.4944160922</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.059952064092616e-06</v>
+        <v>3.894882521890922e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.5634765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>604161.7104687743</v>
+        <v>662961.6409139555</v>
       </c>
     </row>
     <row r="5">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>435.9875760997217</v>
+        <v>471.6193565910482</v>
       </c>
       <c r="AB5" t="n">
-        <v>596.5374360340007</v>
+        <v>645.2904100654455</v>
       </c>
       <c r="AC5" t="n">
-        <v>539.6047403844648</v>
+        <v>583.7047989995773</v>
       </c>
       <c r="AD5" t="n">
-        <v>435987.5760997217</v>
+        <v>471619.3565910482</v>
       </c>
       <c r="AE5" t="n">
-        <v>596537.4360340007</v>
+        <v>645290.4100654455</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.168879411750132e-06</v>
+        <v>4.100838393361202e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.1826171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>539604.7403844647</v>
+        <v>583704.7989995773</v>
       </c>
     </row>
     <row r="6">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>432.9665501156162</v>
+        <v>468.5983306069427</v>
       </c>
       <c r="AB6" t="n">
-        <v>592.4039350042875</v>
+        <v>641.1569090357322</v>
       </c>
       <c r="AC6" t="n">
-        <v>535.8657348916222</v>
+        <v>579.9657935067348</v>
       </c>
       <c r="AD6" t="n">
-        <v>432966.5501156162</v>
+        <v>468598.3306069427</v>
       </c>
       <c r="AE6" t="n">
-        <v>592403.9350042875</v>
+        <v>641156.9090357322</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.178834107845371e-06</v>
+        <v>4.119660371070261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.150065104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>535865.7348916222</v>
+        <v>579965.7935067348</v>
       </c>
     </row>
   </sheetData>
@@ -5955,28 +5955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.0964132027941</v>
+        <v>389.0090172722163</v>
       </c>
       <c r="AB2" t="n">
-        <v>465.3349165388855</v>
+        <v>532.2592992984655</v>
       </c>
       <c r="AC2" t="n">
-        <v>420.9240052060707</v>
+        <v>481.4612188040376</v>
       </c>
       <c r="AD2" t="n">
-        <v>340096.4132027941</v>
+        <v>389009.0172722163</v>
       </c>
       <c r="AE2" t="n">
-        <v>465334.9165388855</v>
+        <v>532259.2992984655</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.156773804706798e-06</v>
+        <v>4.9445479080258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.644205729166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>420924.0052060707</v>
+        <v>481461.2188040376</v>
       </c>
     </row>
   </sheetData>
@@ -6252,28 +6252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>793.5570500609183</v>
+        <v>861.8434532062885</v>
       </c>
       <c r="AB2" t="n">
-        <v>1085.779765159568</v>
+        <v>1179.212234526553</v>
       </c>
       <c r="AC2" t="n">
-        <v>982.1544682742092</v>
+        <v>1066.669873898103</v>
       </c>
       <c r="AD2" t="n">
-        <v>793557.0500609183</v>
+        <v>861843.4532062885</v>
       </c>
       <c r="AE2" t="n">
-        <v>1085779.765159568</v>
+        <v>1179212.234526553</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531709643842748e-06</v>
+        <v>3.002129733805324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57454427083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>982154.4682742092</v>
+        <v>1066669.873898103</v>
       </c>
     </row>
     <row r="3">
@@ -6358,28 +6358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.9331837099601</v>
+        <v>507.5143463765881</v>
       </c>
       <c r="AB3" t="n">
-        <v>632.0373610057522</v>
+        <v>694.4035186652073</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.7166023413699</v>
+        <v>628.1306214452587</v>
       </c>
       <c r="AD3" t="n">
-        <v>461933.1837099601</v>
+        <v>507514.3463765881</v>
       </c>
       <c r="AE3" t="n">
-        <v>632037.3610057522</v>
+        <v>694403.5186652073</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.071072057410037e-06</v>
+        <v>4.059272610444153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.820638020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>571716.60234137</v>
+        <v>628130.6214452587</v>
       </c>
     </row>
     <row r="4">
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.8314267194104</v>
+        <v>444.2419971854462</v>
       </c>
       <c r="AB4" t="n">
-        <v>545.6987532382382</v>
+        <v>607.8314991228463</v>
       </c>
       <c r="AC4" t="n">
-        <v>493.6180301221904</v>
+        <v>549.8209139434281</v>
       </c>
       <c r="AD4" t="n">
-        <v>398831.4267194104</v>
+        <v>444241.9971854462</v>
       </c>
       <c r="AE4" t="n">
-        <v>545698.7532382382</v>
+        <v>607831.4991228463</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.227009493214454e-06</v>
+        <v>4.364907829575711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>493618.0301221904</v>
+        <v>549820.9139434281</v>
       </c>
     </row>
     <row r="5">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.6277984076569</v>
+        <v>445.0383688736927</v>
       </c>
       <c r="AB5" t="n">
-        <v>546.7883841155364</v>
+        <v>608.9211300001444</v>
       </c>
       <c r="AC5" t="n">
-        <v>494.6036681578658</v>
+        <v>550.8065519791035</v>
       </c>
       <c r="AD5" t="n">
-        <v>399627.7984076569</v>
+        <v>445038.3688736927</v>
       </c>
       <c r="AE5" t="n">
-        <v>546788.3841155363</v>
+        <v>608921.1300001445</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.230591974190177e-06</v>
+        <v>4.371929442778478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.2607421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>494603.6681578658</v>
+        <v>550806.5519791035</v>
       </c>
     </row>
   </sheetData>
@@ -6867,28 +6867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>959.8595362741795</v>
+        <v>1029.564207669615</v>
       </c>
       <c r="AB2" t="n">
-        <v>1313.322163544442</v>
+        <v>1408.695170100745</v>
       </c>
       <c r="AC2" t="n">
-        <v>1187.980539514993</v>
+        <v>1274.251280182418</v>
       </c>
       <c r="AD2" t="n">
-        <v>959859.5362741795</v>
+        <v>1029564.207669615</v>
       </c>
       <c r="AE2" t="n">
-        <v>1313322.163544442</v>
+        <v>1408695.170100745</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.384741401529939e-06</v>
+        <v>2.662446559439238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.4599609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1187980.539514993</v>
+        <v>1274251.280182418</v>
       </c>
     </row>
     <row r="3">
@@ -6973,28 +6973,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>540.4027294416495</v>
+        <v>586.9009871596471</v>
       </c>
       <c r="AB3" t="n">
-        <v>739.4028553078833</v>
+        <v>803.0238228760005</v>
       </c>
       <c r="AC3" t="n">
-        <v>668.8352845557233</v>
+        <v>726.3843562717284</v>
       </c>
       <c r="AD3" t="n">
-        <v>540402.7294416495</v>
+        <v>586900.9871596472</v>
       </c>
       <c r="AE3" t="n">
-        <v>739402.8553078834</v>
+        <v>803023.8228760005</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.946847737244634e-06</v>
+        <v>3.743210143101202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>668835.2845557233</v>
+        <v>726384.3562717284</v>
       </c>
     </row>
     <row r="4">
@@ -7079,28 +7079,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>434.2614659975343</v>
+        <v>480.6743828609605</v>
       </c>
       <c r="AB4" t="n">
-        <v>594.1756960415848</v>
+        <v>657.6798964875045</v>
       </c>
       <c r="AC4" t="n">
-        <v>537.4684015422022</v>
+        <v>594.9118502262684</v>
       </c>
       <c r="AD4" t="n">
-        <v>434261.4659975343</v>
+        <v>480674.3828609604</v>
       </c>
       <c r="AE4" t="n">
-        <v>594175.6960415848</v>
+        <v>657679.8964875045</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.159892376192875e-06</v>
+        <v>4.152831726848191e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.347005208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>537468.4015422022</v>
+        <v>594911.8502262684</v>
       </c>
     </row>
     <row r="5">
@@ -7185,28 +7185,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>415.2457638735351</v>
+        <v>450.1834851800999</v>
       </c>
       <c r="AB5" t="n">
-        <v>568.1575734819588</v>
+        <v>615.9609051170823</v>
       </c>
       <c r="AC5" t="n">
-        <v>513.9334120830025</v>
+        <v>557.1744608392671</v>
       </c>
       <c r="AD5" t="n">
-        <v>415245.763873535</v>
+        <v>450183.4851800998</v>
       </c>
       <c r="AE5" t="n">
-        <v>568157.5734819588</v>
+        <v>615960.9051170823</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.204353866060334e-06</v>
+        <v>4.238317970412781e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.198893229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>513933.4120830025</v>
+        <v>557174.4608392671</v>
       </c>
     </row>
   </sheetData>
@@ -7482,28 +7482,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1395.002053499441</v>
+        <v>1479.652041575027</v>
       </c>
       <c r="AB2" t="n">
-        <v>1908.703352745038</v>
+        <v>2024.525200923963</v>
       </c>
       <c r="AC2" t="n">
-        <v>1726.539383641031</v>
+        <v>1831.307357186744</v>
       </c>
       <c r="AD2" t="n">
-        <v>1395002.053499441</v>
+        <v>1479652.041575027</v>
       </c>
       <c r="AE2" t="n">
-        <v>1908703.352745038</v>
+        <v>2024525.200923963</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.123984453215874e-06</v>
+        <v>2.093897786139499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.6279296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1726539.383641032</v>
+        <v>1831307.357186744</v>
       </c>
     </row>
     <row r="3">
@@ -7588,28 +7588,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>679.3979353113149</v>
+        <v>739.776871653591</v>
       </c>
       <c r="AB3" t="n">
-        <v>929.582228014465</v>
+        <v>1012.195352448642</v>
       </c>
       <c r="AC3" t="n">
-        <v>840.8642048496149</v>
+        <v>915.5928486360424</v>
       </c>
       <c r="AD3" t="n">
-        <v>679397.9353113149</v>
+        <v>739776.871653591</v>
       </c>
       <c r="AE3" t="n">
-        <v>929582.2280144651</v>
+        <v>1012195.352448642</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.732138814488668e-06</v>
+        <v>3.226843234857029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.8427734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>840864.2048496149</v>
+        <v>915592.8486360424</v>
       </c>
     </row>
     <row r="4">
@@ -7694,28 +7694,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>542.0960834746556</v>
+        <v>590.4675052321339</v>
       </c>
       <c r="AB4" t="n">
-        <v>741.7197770013498</v>
+        <v>807.9036902464495</v>
       </c>
       <c r="AC4" t="n">
-        <v>670.9310824945854</v>
+        <v>730.7984959492785</v>
       </c>
       <c r="AD4" t="n">
-        <v>542096.0834746556</v>
+        <v>590467.5052321339</v>
       </c>
       <c r="AE4" t="n">
-        <v>741719.7770013498</v>
+        <v>807903.6902464496</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.96563169135617e-06</v>
+        <v>3.661822754861391e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.79296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>670931.0824945854</v>
+        <v>730798.4959492785</v>
       </c>
     </row>
     <row r="5">
@@ -7800,28 +7800,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>480.1700939375514</v>
+        <v>528.3709234944373</v>
       </c>
       <c r="AB5" t="n">
-        <v>656.9899061348391</v>
+        <v>722.9404076050918</v>
       </c>
       <c r="AC5" t="n">
-        <v>594.2877115844537</v>
+        <v>653.9439897564957</v>
       </c>
       <c r="AD5" t="n">
-        <v>480170.0939375514</v>
+        <v>528370.9234944374</v>
       </c>
       <c r="AE5" t="n">
-        <v>656989.9061348391</v>
+        <v>722940.4076050918</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.094001011810533e-06</v>
+        <v>3.900965062513931e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.314453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>594287.7115844537</v>
+        <v>653943.9897564957</v>
       </c>
     </row>
     <row r="6">
@@ -7906,28 +7906,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>447.7731927968622</v>
+        <v>484.0518486235219</v>
       </c>
       <c r="AB6" t="n">
-        <v>612.6630367437413</v>
+        <v>662.3010941471144</v>
       </c>
       <c r="AC6" t="n">
-        <v>554.1913363948904</v>
+        <v>599.0920072671369</v>
       </c>
       <c r="AD6" t="n">
-        <v>447773.1927968622</v>
+        <v>484051.8486235219</v>
       </c>
       <c r="AE6" t="n">
-        <v>612663.0367437412</v>
+        <v>662301.0941471144</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.153480051786454e-06</v>
+        <v>4.011770002716573e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.112630208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>554191.3363948904</v>
+        <v>599092.0072671368</v>
       </c>
     </row>
     <row r="7">
@@ -8012,28 +8012,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>449.9347483634804</v>
+        <v>486.2134041901402</v>
       </c>
       <c r="AB7" t="n">
-        <v>615.6205724310898</v>
+        <v>665.2586298344629</v>
       </c>
       <c r="AC7" t="n">
-        <v>556.8666090271659</v>
+        <v>601.7672798994121</v>
       </c>
       <c r="AD7" t="n">
-        <v>449934.7483634804</v>
+        <v>486213.4041901402</v>
       </c>
       <c r="AE7" t="n">
-        <v>615620.5724310898</v>
+        <v>665258.6298344629</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.153009489761328e-06</v>
+        <v>4.010893381354211e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.1142578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>556866.6090271658</v>
+        <v>601767.2798994121</v>
       </c>
     </row>
   </sheetData>
@@ -8309,28 +8309,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>644.2935711395133</v>
+        <v>699.8959885850587</v>
       </c>
       <c r="AB2" t="n">
-        <v>881.5508882593605</v>
+        <v>957.6285688138886</v>
       </c>
       <c r="AC2" t="n">
-        <v>797.4169087483288</v>
+        <v>866.2338422464281</v>
       </c>
       <c r="AD2" t="n">
-        <v>644293.5711395134</v>
+        <v>699895.9885850587</v>
       </c>
       <c r="AE2" t="n">
-        <v>881550.8882593605</v>
+        <v>957628.5688138886</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.702045135316447e-06</v>
+        <v>3.411744971771774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.736328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>797416.9087483288</v>
+        <v>866233.8422464281</v>
       </c>
     </row>
     <row r="3">
@@ -8415,28 +8415,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>397.0412190938816</v>
+        <v>441.5231530503178</v>
       </c>
       <c r="AB3" t="n">
-        <v>543.2493121866033</v>
+        <v>604.1114566302259</v>
       </c>
       <c r="AC3" t="n">
-        <v>491.4023602867115</v>
+        <v>546.455907085191</v>
       </c>
       <c r="AD3" t="n">
-        <v>397041.2190938816</v>
+        <v>441523.1530503178</v>
       </c>
       <c r="AE3" t="n">
-        <v>543249.3121866033</v>
+        <v>604111.4566302259</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.207048656951285e-06</v>
+        <v>4.424023195136492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.508138020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>491402.3602867115</v>
+        <v>546455.907085191</v>
       </c>
     </row>
     <row r="4">
@@ -8521,28 +8521,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.4963872503609</v>
+        <v>427.8077290062049</v>
       </c>
       <c r="AB4" t="n">
-        <v>524.7166757024906</v>
+        <v>585.3454083712662</v>
       </c>
       <c r="AC4" t="n">
-        <v>474.6384526179239</v>
+        <v>529.4808641337522</v>
       </c>
       <c r="AD4" t="n">
-        <v>383496.3872503609</v>
+        <v>427807.7290062049</v>
       </c>
       <c r="AE4" t="n">
-        <v>524716.6757024906</v>
+        <v>585345.4083712662</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.247774747405707e-06</v>
+        <v>4.505658535730421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.373046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>474638.4526179238</v>
+        <v>529480.8641337522</v>
       </c>
     </row>
   </sheetData>
@@ -8818,28 +8818,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.0881578369678</v>
+        <v>507.2290620167564</v>
       </c>
       <c r="AB2" t="n">
-        <v>621.3034505082089</v>
+        <v>694.0131800182278</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.0071211965742</v>
+        <v>627.7775361709032</v>
       </c>
       <c r="AD2" t="n">
-        <v>454088.1578369677</v>
+        <v>507229.0620167564</v>
       </c>
       <c r="AE2" t="n">
-        <v>621303.4505082089</v>
+        <v>694013.1800182278</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.009899760357893e-06</v>
+        <v>4.204835993612975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.5888671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>562007.1211965742</v>
+        <v>627777.5361709032</v>
       </c>
     </row>
     <row r="3">
@@ -8924,28 +8924,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.8256039084767</v>
+        <v>401.4065999359648</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.9610215359789</v>
+        <v>549.2222188417522</v>
       </c>
       <c r="AC3" t="n">
-        <v>444.1043907087059</v>
+        <v>496.8052211137202</v>
       </c>
       <c r="AD3" t="n">
-        <v>358825.6039084767</v>
+        <v>401406.5999359649</v>
       </c>
       <c r="AE3" t="n">
-        <v>490961.0215359789</v>
+        <v>549222.2188417523</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.260726256756311e-06</v>
+        <v>4.729580710245063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.635091145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>444104.3907087059</v>
+        <v>496805.2211137202</v>
       </c>
     </row>
   </sheetData>
@@ -15594,28 +15594,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.3454315826991</v>
+        <v>397.3217210482545</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.5675403423694</v>
+        <v>543.633107335449</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.0347785974337</v>
+        <v>491.7495265652113</v>
       </c>
       <c r="AD2" t="n">
-        <v>356345.4315826991</v>
+        <v>397321.7210482545</v>
       </c>
       <c r="AE2" t="n">
-        <v>487567.5403423694</v>
+        <v>543633.1073354491</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.227917996898935e-06</v>
+        <v>4.843172392326606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.014322916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>441034.7785974336</v>
+        <v>491749.5265652114</v>
       </c>
     </row>
     <row r="3">
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.0013054955515</v>
+        <v>396.1575498008782</v>
       </c>
       <c r="AB3" t="n">
-        <v>472.0460065624122</v>
+        <v>542.0402368751782</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.9945982168261</v>
+        <v>490.308677426061</v>
       </c>
       <c r="AD3" t="n">
-        <v>345001.3054955515</v>
+        <v>396157.5498008782</v>
       </c>
       <c r="AE3" t="n">
-        <v>472046.0065624123</v>
+        <v>542040.2368751782</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.241193127525063e-06</v>
+        <v>4.872030611633817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.967122395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>426994.5982168262</v>
+        <v>490308.677426061</v>
       </c>
     </row>
   </sheetData>
@@ -15997,28 +15997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.0442140131169</v>
+        <v>394.4355085177275</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.8412041229082</v>
+        <v>539.6840640204719</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.5230260452328</v>
+        <v>488.1773744016983</v>
       </c>
       <c r="AD2" t="n">
-        <v>347044.2140131169</v>
+        <v>394435.5085177275</v>
       </c>
       <c r="AE2" t="n">
-        <v>474841.2041229082</v>
+        <v>539684.0640204719</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046333430181985e-06</v>
+        <v>4.867259240046497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.365234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>429523.0260452328</v>
+        <v>488177.3744016984</v>
       </c>
     </row>
   </sheetData>
@@ -16294,28 +16294,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>879.8931912675232</v>
+        <v>937.5095622818421</v>
       </c>
       <c r="AB2" t="n">
-        <v>1203.908682440177</v>
+        <v>1282.741943116862</v>
       </c>
       <c r="AC2" t="n">
-        <v>1089.009327484534</v>
+        <v>1160.318852405413</v>
       </c>
       <c r="AD2" t="n">
-        <v>879893.1912675232</v>
+        <v>937509.5622818421</v>
       </c>
       <c r="AE2" t="n">
-        <v>1203908.682440177</v>
+        <v>1282741.943116862</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.456075455961228e-06</v>
+        <v>2.825628280096108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00748697916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1089009.327484534</v>
+        <v>1160318.852405413</v>
       </c>
     </row>
     <row r="3">
@@ -16400,28 +16400,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>494.1657972039151</v>
+        <v>551.6113970005396</v>
       </c>
       <c r="AB3" t="n">
-        <v>676.1394447907287</v>
+        <v>754.7390487534701</v>
       </c>
       <c r="AC3" t="n">
-        <v>611.6096451475717</v>
+        <v>682.707813223346</v>
       </c>
       <c r="AD3" t="n">
-        <v>494165.7972039151</v>
+        <v>551611.3970005396</v>
       </c>
       <c r="AE3" t="n">
-        <v>676139.4447907287</v>
+        <v>754739.0487534701</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.009415641748199e-06</v>
+        <v>3.899428179045117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.976888020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>611609.6451475717</v>
+        <v>682707.813223346</v>
       </c>
     </row>
     <row r="4">
@@ -16506,28 +16506,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.2420286476075</v>
+        <v>443.8118870596193</v>
       </c>
       <c r="AB4" t="n">
-        <v>559.9429980797399</v>
+        <v>607.2430034735704</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.5028242279424</v>
+        <v>549.2885834929602</v>
       </c>
       <c r="AD4" t="n">
-        <v>409242.0286476075</v>
+        <v>443811.8870596192</v>
       </c>
       <c r="AE4" t="n">
-        <v>559942.99807974</v>
+        <v>607243.0034735705</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.208239958371066e-06</v>
+        <v>4.285262312516916e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.257486979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>506502.8242279424</v>
+        <v>549288.5834929602</v>
       </c>
     </row>
     <row r="5">
@@ -16612,28 +16612,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.9806636205779</v>
+        <v>442.5505220325896</v>
       </c>
       <c r="AB5" t="n">
-        <v>558.2171428022604</v>
+        <v>605.5171481960909</v>
       </c>
       <c r="AC5" t="n">
-        <v>504.9416821558924</v>
+        <v>547.7274414209103</v>
       </c>
       <c r="AD5" t="n">
-        <v>407980.6636205779</v>
+        <v>442550.5220325897</v>
       </c>
       <c r="AE5" t="n">
-        <v>558217.1428022604</v>
+        <v>605517.1481960909</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.216019612166612e-06</v>
+        <v>4.300359339037111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.233072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>504941.6821558924</v>
+        <v>547727.4414209103</v>
       </c>
     </row>
   </sheetData>
@@ -16909,28 +16909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1278.341604890923</v>
+        <v>1350.262678624221</v>
       </c>
       <c r="AB2" t="n">
-        <v>1749.083380263107</v>
+        <v>1847.488966278844</v>
       </c>
       <c r="AC2" t="n">
-        <v>1582.153317304737</v>
+        <v>1671.16721230424</v>
       </c>
       <c r="AD2" t="n">
-        <v>1278341.604890923</v>
+        <v>1350262.678624221</v>
       </c>
       <c r="AE2" t="n">
-        <v>1749083.380263107</v>
+        <v>1847488.966278844</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.184197383885269e-06</v>
+        <v>2.222018769013734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0419921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1582153.317304737</v>
+        <v>1671167.21230424</v>
       </c>
     </row>
     <row r="3">
@@ -17015,28 +17015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>642.7506555591943</v>
+        <v>702.5994682252451</v>
       </c>
       <c r="AB3" t="n">
-        <v>879.4398030937367</v>
+        <v>961.3275889266961</v>
       </c>
       <c r="AC3" t="n">
-        <v>795.5073025879857</v>
+        <v>869.5798330712765</v>
       </c>
       <c r="AD3" t="n">
-        <v>642750.6555591944</v>
+        <v>702599.4682252451</v>
       </c>
       <c r="AE3" t="n">
-        <v>879439.8030937368</v>
+        <v>961327.5889266961</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.783081083676913e-06</v>
+        <v>3.345759489523844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.662109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>795507.3025879856</v>
+        <v>869579.8330712765</v>
       </c>
     </row>
     <row r="4">
@@ -17121,28 +17121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>514.1905560197231</v>
+        <v>562.1378788362208</v>
       </c>
       <c r="AB4" t="n">
-        <v>703.5382032325268</v>
+        <v>769.1418455966525</v>
       </c>
       <c r="AC4" t="n">
-        <v>636.3935045380836</v>
+        <v>695.7360273502674</v>
       </c>
       <c r="AD4" t="n">
-        <v>514190.5560197231</v>
+        <v>562137.8788362208</v>
       </c>
       <c r="AE4" t="n">
-        <v>703538.2032325268</v>
+        <v>769141.8455966525</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.014150931401942e-06</v>
+        <v>3.779337156207748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.667643229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>636393.5045380836</v>
+        <v>695736.0273502674</v>
       </c>
     </row>
     <row r="5">
@@ -17227,28 +17227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>454.268641286922</v>
+        <v>490.2292229078465</v>
       </c>
       <c r="AB5" t="n">
-        <v>621.5503959268042</v>
+        <v>670.7532501694468</v>
       </c>
       <c r="AC5" t="n">
-        <v>562.2304984910088</v>
+        <v>606.7375013813732</v>
       </c>
       <c r="AD5" t="n">
-        <v>454268.641286922</v>
+        <v>490229.2229078464</v>
       </c>
       <c r="AE5" t="n">
-        <v>621550.3959268042</v>
+        <v>670753.2501694468</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.13798918654821e-06</v>
+        <v>4.011706295847377e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.223307291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>562230.4984910088</v>
+        <v>606737.5013813733</v>
       </c>
     </row>
     <row r="6">
@@ -17333,28 +17333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>439.6883379841974</v>
+        <v>475.6489196051218</v>
       </c>
       <c r="AB6" t="n">
-        <v>601.6009817104319</v>
+        <v>650.8038359530747</v>
       </c>
       <c r="AC6" t="n">
-        <v>544.1850283682686</v>
+        <v>588.6920312586329</v>
       </c>
       <c r="AD6" t="n">
-        <v>439688.3379841974</v>
+        <v>475648.9196051218</v>
       </c>
       <c r="AE6" t="n">
-        <v>601600.981710432</v>
+        <v>650803.8359530746</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.168070969599065e-06</v>
+        <v>4.068151519805815e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.1240234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>544185.0283682686</v>
+        <v>588692.0312586329</v>
       </c>
     </row>
     <row r="7">
@@ -17439,28 +17439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>441.4866829389195</v>
+        <v>477.447264559844</v>
       </c>
       <c r="AB7" t="n">
-        <v>604.061556614863</v>
+        <v>653.2644108575055</v>
       </c>
       <c r="AC7" t="n">
-        <v>546.4107694572592</v>
+        <v>590.9177723476236</v>
       </c>
       <c r="AD7" t="n">
-        <v>441486.6829389195</v>
+        <v>477447.264559844</v>
       </c>
       <c r="AE7" t="n">
-        <v>604061.556614863</v>
+        <v>653264.4108575055</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.168070969599065e-06</v>
+        <v>4.068151519805815e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.1240234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>546410.7694572592</v>
+        <v>590917.7723476236</v>
       </c>
     </row>
   </sheetData>
@@ -17736,28 +17736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.6636312571009</v>
+        <v>415.5394481819295</v>
       </c>
       <c r="AB2" t="n">
-        <v>493.4758916424103</v>
+        <v>568.5594053091415</v>
       </c>
       <c r="AC2" t="n">
-        <v>446.3792451418217</v>
+        <v>514.2968936445735</v>
       </c>
       <c r="AD2" t="n">
-        <v>360663.6312571008</v>
+        <v>415539.4481819295</v>
       </c>
       <c r="AE2" t="n">
-        <v>493475.8916424102</v>
+        <v>568559.4053091415</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.817194201134946e-06</v>
+        <v>4.54466479102163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.92122395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>446379.2451418217</v>
+        <v>514296.8936445735</v>
       </c>
     </row>
   </sheetData>
@@ -18033,28 +18033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.3941668799818</v>
+        <v>566.3785608971248</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.0803043604373</v>
+        <v>774.9441338780697</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.1701840846636</v>
+        <v>700.9845533816691</v>
       </c>
       <c r="AD2" t="n">
-        <v>512394.1668799818</v>
+        <v>566378.5608971248</v>
       </c>
       <c r="AE2" t="n">
-        <v>701080.3043604372</v>
+        <v>774944.1338780697</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.895635691940319e-06</v>
+        <v>3.903651223032978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.972981770833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>634170.1840846635</v>
+        <v>700984.5533816691</v>
       </c>
     </row>
     <row r="3">
@@ -18139,28 +18139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>365.3278641483731</v>
+        <v>408.5836520457448</v>
       </c>
       <c r="AB3" t="n">
-        <v>499.8577008556816</v>
+        <v>559.0421781675456</v>
       </c>
       <c r="AC3" t="n">
-        <v>452.1519834407039</v>
+        <v>505.6879773038593</v>
       </c>
       <c r="AD3" t="n">
-        <v>365327.8641483731</v>
+        <v>408583.6520457448</v>
       </c>
       <c r="AE3" t="n">
-        <v>499857.7008556816</v>
+        <v>559042.1781675456</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.263517356712064e-06</v>
+        <v>4.661223849842773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5146484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>452151.9834407039</v>
+        <v>505687.9773038593</v>
       </c>
     </row>
     <row r="4">
@@ -18245,28 +18245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.5333654467638</v>
+        <v>410.7891533441355</v>
       </c>
       <c r="AB4" t="n">
-        <v>502.87536503199</v>
+        <v>562.059842343854</v>
       </c>
       <c r="AC4" t="n">
-        <v>454.8816459833437</v>
+        <v>508.4176398464992</v>
       </c>
       <c r="AD4" t="n">
-        <v>367533.3654467638</v>
+        <v>410789.1533441355</v>
       </c>
       <c r="AE4" t="n">
-        <v>502875.36503199</v>
+        <v>562059.842343854</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.263308333038898e-06</v>
+        <v>4.660793410850268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.516276041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>454881.6459833437</v>
+        <v>508417.6398464992</v>
       </c>
     </row>
   </sheetData>
@@ -18542,28 +18542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>722.6136181040583</v>
+        <v>778.8349034019055</v>
       </c>
       <c r="AB2" t="n">
-        <v>988.7118317528647</v>
+        <v>1065.636274605435</v>
       </c>
       <c r="AC2" t="n">
-        <v>894.3505621961417</v>
+        <v>963.9334441869964</v>
       </c>
       <c r="AD2" t="n">
-        <v>722613.6181040583</v>
+        <v>778834.9034019056</v>
       </c>
       <c r="AE2" t="n">
-        <v>988711.8317528646</v>
+        <v>1065636.274605435</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.613783608572919e-06</v>
+        <v>3.197202445160226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.14811197916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>894350.5621961417</v>
+        <v>963933.4441869964</v>
       </c>
     </row>
     <row r="3">
@@ -18648,28 +18648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.8005847408858</v>
+        <v>472.8458140559799</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.3356332722739</v>
+        <v>646.9685032764496</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.4720219564882</v>
+        <v>585.2227373497418</v>
       </c>
       <c r="AD3" t="n">
-        <v>427800.5847408858</v>
+        <v>472845.81405598</v>
       </c>
       <c r="AE3" t="n">
-        <v>585335.6332722738</v>
+        <v>646968.5032764496</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.141649228386708e-06</v>
+        <v>4.243001424291697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.646484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>529472.0219564883</v>
+        <v>585222.7373497419</v>
       </c>
     </row>
     <row r="4">
@@ -18754,28 +18754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>391.5090655412886</v>
+        <v>436.3837026557906</v>
       </c>
       <c r="AB4" t="n">
-        <v>535.6799756345557</v>
+        <v>597.0794338638846</v>
       </c>
       <c r="AC4" t="n">
-        <v>484.5554305915607</v>
+        <v>540.0950107021632</v>
       </c>
       <c r="AD4" t="n">
-        <v>391509.0655412886</v>
+        <v>436383.7026557905</v>
       </c>
       <c r="AE4" t="n">
-        <v>535679.9756345557</v>
+        <v>597079.4338638845</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.236536243156895e-06</v>
+        <v>4.430990070368895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.322591145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>484555.4305915607</v>
+        <v>540095.0107021632</v>
       </c>
     </row>
   </sheetData>
